--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3796087.73406956</v>
+        <v>3789070.71917785</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7815592.645458067</v>
+        <v>7815592.645458065</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>314.6536463267108</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>80.34293540178116</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>173.3035671421253</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>76.96510530585658</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>92.1347270075933</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>94.69402002676111</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>209.7165034419968</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>107.0219443069638</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>115.274134505893</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>62.63869417193528</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7178027211456</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>172.7067178467371</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>48.05202235368836</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>57.85017494300162</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>8.525532102719872</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>161.8175117958952</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,10 +2611,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>165.632625110349</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>183.4653217847143</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>157.2425576766698</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>57.93408156253825</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>149.0799667719512</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>176.8407062429512</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
     <row r="44">
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1117.513150920515</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C2" t="n">
-        <v>1117.513150920515</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>1117.513150920515</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>1117.513150920515</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>706.5272461309073</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>288.5634380290942</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1117.513150920515</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>404.9282174162494</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>404.9282174162494</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>404.9282174162494</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9282174162494</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>549.649320534154</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2372.877533047135</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2119.115747685226</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2119.115747685226</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2119.115747685226</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2119.115747685226</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>2119.115747685226</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>388.7731165986622</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4801,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2534.017427501278</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2534.017427501278</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2181.248772231163</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2181.248772231163</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.109440255352</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.0380259561523</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>216.0380259561523</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>216.0380259561523</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541696</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541696</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>216.0380259561523</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.0380259561523</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,13 +5053,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,13 +5120,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
         <v>1198.760773441947</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>545.9992215018333</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>310.6051391271017</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1124.545030325236</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X16" t="n">
-        <v>318.009670603816</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,43 +5503,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1078.203681329925</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>909.2674984020182</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>759.1508589896824</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>611.2377654072893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>464.3478179093789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>296.1724962291995</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>145.7544877771428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.996260473455</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>1298.996260473455</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>1078.203681329925</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,25 +5755,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>727.647686332073</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>940.1463453738954</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.8287400488918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>105.8287400488918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>105.8287400488918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>105.8287400488918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333287</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273998</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>554.6108700904392</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>326.6213191924219</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.8287400488918</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>1107.825173417763</v>
       </c>
       <c r="V28" t="n">
-        <v>731.31772835508</v>
+        <v>853.1406852118757</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="X28" t="n">
-        <v>318.009670603816</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,67 +6448,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1340.085404217832</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1050.956765431391</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>796.2722772255036</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822468</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6715,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>896.58386925998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>668.5943183619627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,28 +6952,28 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1348.33044553573</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1124.545030325236</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,19 +7350,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.210845262961</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>896.5838692599799</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>29.47535963978169</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>145.2351313103788</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>180.0237016735865</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504506</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>124.3400780863225</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>117.193286010002</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>124.4198406026824</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>48.84084321165213</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>62.36722311058361</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>194.2874683808264</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>136.8955159202114</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>124.4198406026821</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>120.6047272882283</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>64.30500338171942</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>228.5889167740528</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>48.84084321165207</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>75.29693708087683</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
     <row r="44">
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="11">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
-      <c r="D2" t="n">
-        <v>759463.6371244621</v>
-      </c>
       <c r="E2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="I2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="K2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147617</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="H2" t="n">
-        <v>723403.7605147618</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>723403.7605147611</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147616</v>
       </c>
       <c r="N2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="P2" t="n">
         <v>723403.760514761</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001636</v>
+        <v>-78996.18794001589</v>
       </c>
       <c r="C6" t="n">
+        <v>510971.6912745286</v>
+      </c>
+      <c r="D6" t="n">
         <v>510971.6912745285</v>
       </c>
-      <c r="D6" t="n">
-        <v>510971.6912745282</v>
-      </c>
       <c r="E6" t="n">
-        <v>84081.79050227783</v>
+        <v>83107.19924255629</v>
       </c>
       <c r="F6" t="n">
-        <v>609241.826979174</v>
+        <v>608267.235719452</v>
       </c>
       <c r="G6" t="n">
-        <v>609241.8269791739</v>
+        <v>608267.2357194525</v>
       </c>
       <c r="H6" t="n">
-        <v>609241.8269791745</v>
+        <v>608267.2357194525</v>
       </c>
       <c r="I6" t="n">
-        <v>609241.826979174</v>
+        <v>608267.2357194527</v>
       </c>
       <c r="J6" t="n">
-        <v>432818.6077865812</v>
+        <v>431844.0165268596</v>
       </c>
       <c r="K6" t="n">
-        <v>609241.8269791742</v>
+        <v>608267.2357194521</v>
       </c>
       <c r="L6" t="n">
-        <v>609241.8269791738</v>
+        <v>608267.2357194523</v>
       </c>
       <c r="M6" t="n">
-        <v>474440.811745337</v>
+        <v>473466.220485615</v>
       </c>
       <c r="N6" t="n">
-        <v>609241.826979174</v>
+        <v>608267.2357194524</v>
       </c>
       <c r="O6" t="n">
-        <v>609241.8269791744</v>
+        <v>608267.2357194525</v>
       </c>
       <c r="P6" t="n">
-        <v>609241.8269791738</v>
+        <v>608267.235719452</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>68.08019533676975</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>243.579837362576</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>75.23878421646982</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>38.84197180789357</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>329.9109404358549</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>124.3135933500645</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>75.30176537689297</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>130.3410854313232</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>173.0173382214838</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>144.2022232013255</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>31.1598281406762</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>362.6699330377946</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>394.4928362664032</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>429.2814066296109</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>434.7644551367889</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3789070.71917785</v>
+        <v>3794009.982026882</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.6536463267108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>106.3355174722016</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I4" t="n">
-        <v>59.7268375758684</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>76.96510530585658</v>
+        <v>22.78699370372962</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>28.11374845278244</v>
       </c>
       <c r="I7" t="n">
-        <v>59.66385641544528</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>209.7165034419968</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>274.2597047453788</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.63869417193528</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>137.6122649567898</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>169.7438101404423</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>237.3965091869248</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>161.8175117958952</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>165.632625110349</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3319,10 +3319,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2534.710787940431</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2316.076120912494</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2062.314335550585</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1731.251448207015</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1378.482792936901</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1005.017034675821</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="3">
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4467,22 +4467,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2731207858881</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2731207858881</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>549.649320534154</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="C5" t="n">
-        <v>549.649320534154</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="D5" t="n">
-        <v>549.649320534154</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="E5" t="n">
-        <v>549.649320534154</v>
+        <v>494.9239552794803</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4603,16 +4603,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982757</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4707,22 +4707,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521274</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.106519274536</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>491.3844633677903</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>484.4389626185868</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4843,13 +4843,13 @@
         <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.08070321196</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.941371236149</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="9">
@@ -4941,16 +4941,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5023,16 +5023,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,13 +5053,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>531.3977182706318</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>531.3977182706318</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>310.6051391271017</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="W16" t="n">
-        <v>496.665036439558</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="X16" t="n">
-        <v>268.6754855415407</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5706,16 +5706,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,16 +5755,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6208,43 +6208,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1107.825173417763</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>853.1406852118757</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>563.7235151749151</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,34 +6445,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7122,19 +7122,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7216,10 +7216,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7365,16 +7365,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822458</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7836,7 +7836,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117.193286010002</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>148.6250874417875</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>14.74113413690318</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>124.4198406026821</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>120.6047272882283</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
-        <v>61.34209567542518</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="10">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147614</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="I2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="J2" t="n">
         <v>723403.760514761</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>723403.7605147614</v>
       </c>
-      <c r="H2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147617</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147611</v>
-      </c>
       <c r="L2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="M2" t="n">
         <v>723403.7605147611</v>
@@ -26352,10 +26352,10 @@
         <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.760514761</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147611</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26447,7 +26447,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,13 +26493,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001589</v>
+        <v>-78996.18794001601</v>
       </c>
       <c r="C6" t="n">
         <v>510971.6912745286</v>
@@ -26530,40 +26530,40 @@
         <v>510971.6912745285</v>
       </c>
       <c r="E6" t="n">
-        <v>83107.19924255629</v>
+        <v>83984.33137630581</v>
       </c>
       <c r="F6" t="n">
-        <v>608267.235719452</v>
+        <v>609144.3678532023</v>
       </c>
       <c r="G6" t="n">
-        <v>608267.2357194525</v>
+        <v>609144.3678532022</v>
       </c>
       <c r="H6" t="n">
-        <v>608267.2357194525</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="I6" t="n">
-        <v>608267.2357194527</v>
+        <v>609144.3678532017</v>
       </c>
       <c r="J6" t="n">
-        <v>431844.0165268596</v>
+        <v>432721.1486606086</v>
       </c>
       <c r="K6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.367853202</v>
       </c>
       <c r="L6" t="n">
-        <v>608267.2357194523</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="M6" t="n">
-        <v>473466.220485615</v>
+        <v>474343.3526193646</v>
       </c>
       <c r="N6" t="n">
-        <v>608267.2357194524</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="O6" t="n">
-        <v>608267.2357194525</v>
+        <v>609144.3678532016</v>
       </c>
       <c r="P6" t="n">
-        <v>608267.235719452</v>
+        <v>609144.3678532017</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26761,7 +26761,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.08019533676975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>68.08019533676998</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I4" t="n">
-        <v>75.23878421646982</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>329.9109404358549</v>
+        <v>384.0890520379818</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="I7" t="n">
-        <v>75.30176537689297</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.0173382214838</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>139.5244652754162</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35904,10 +35904,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
